--- a/academycity/data/training/datasets/excel/battalion_2/112_2_unit_equipment.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/112_2_unit_equipment.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t xml:space="preserve">battalion</t>
   </si>
@@ -40,13 +40,16 @@
     <t xml:space="preserve">hasty_camo_kit</t>
   </si>
   <si>
-    <t xml:space="preserve">breaching_kit</t>
+    <t xml:space="preserve">breaching_kit </t>
   </si>
   <si>
     <t xml:space="preserve">stretcher</t>
   </si>
   <si>
     <t xml:space="preserve">range_finder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drone_t1</t>
   </si>
   <si>
     <t xml:space="preserve">drone_t2</t>
@@ -154,7 +157,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +180,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -233,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,11 +267,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,29 +364,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="964" min="11" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="965" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="965" style="0" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -404,39 +417,69 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>112</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>112</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,86 +487,95 @@
         <v>112</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,31 +583,34 @@
         <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,31 +618,34 @@
         <v>112</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,31 +653,34 @@
         <v>112</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,31 +688,34 @@
         <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,31 +723,34 @@
         <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,31 +758,34 @@
         <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,31 +793,34 @@
         <v>112</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,191 +828,209 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="n">
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="n">
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6" t="n">
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6" t="n">
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,191 +1038,209 @@
         <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7" t="n">
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="7" t="n">
+      <c r="B23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="7" t="n">
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="7" t="n">
+      <c r="B25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,31 +1248,34 @@
         <v>112</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,31 +1283,34 @@
         <v>112</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>4</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,31 +1318,34 @@
         <v>112</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
